--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BCD/15/seed2/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BCD/15/seed2/result_data_KNN.xlsx
@@ -474,7 +474,7 @@
         <v>-21.82</v>
       </c>
       <c r="B3" t="n">
-        <v>6.376</v>
+        <v>5.948</v>
       </c>
       <c r="C3" t="n">
         <v>-12.16</v>
@@ -522,7 +522,7 @@
         <v>-15.25</v>
       </c>
       <c r="D6" t="n">
-        <v>-7.331999999999999</v>
+        <v>-7.912000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -628,7 +628,7 @@
         <v>-22.38</v>
       </c>
       <c r="B14" t="n">
-        <v>6.209999999999999</v>
+        <v>5.77</v>
       </c>
       <c r="C14" t="n">
         <v>-11.3</v>
@@ -690,7 +690,7 @@
         <v>-15.14</v>
       </c>
       <c r="D18" t="n">
-        <v>-8.006</v>
+        <v>-8.308000000000002</v>
       </c>
     </row>
     <row r="19">
@@ -704,7 +704,7 @@
         <v>-12.15</v>
       </c>
       <c r="D19" t="n">
-        <v>-8.134</v>
+        <v>-8.02</v>
       </c>
     </row>
     <row r="20">
@@ -726,7 +726,7 @@
         <v>-19.55</v>
       </c>
       <c r="B21" t="n">
-        <v>9.964000000000002</v>
+        <v>9.159000000000001</v>
       </c>
       <c r="C21" t="n">
         <v>-13.13</v>
@@ -743,7 +743,7 @@
         <v>8.81</v>
       </c>
       <c r="C22" t="n">
-        <v>-12.342</v>
+        <v>-12.711</v>
       </c>
       <c r="D22" t="n">
         <v>-6.8</v>
@@ -754,7 +754,7 @@
         <v>-20.35</v>
       </c>
       <c r="B23" t="n">
-        <v>9.242000000000001</v>
+        <v>8.843999999999999</v>
       </c>
       <c r="C23" t="n">
         <v>-12.89</v>
@@ -771,7 +771,7 @@
         <v>7.41</v>
       </c>
       <c r="C24" t="n">
-        <v>-11.82</v>
+        <v>-12.367</v>
       </c>
       <c r="D24" t="n">
         <v>-7.7</v>
@@ -782,7 +782,7 @@
         <v>-21.51</v>
       </c>
       <c r="B25" t="n">
-        <v>6.09</v>
+        <v>5.596</v>
       </c>
       <c r="C25" t="n">
         <v>-11.07</v>
@@ -796,7 +796,7 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>5.306</v>
+        <v>5.587000000000001</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -827,7 +827,7 @@
         <v>5.47</v>
       </c>
       <c r="C28" t="n">
-        <v>-12.782</v>
+        <v>-12.938</v>
       </c>
       <c r="D28" t="n">
         <v>-7.75</v>
@@ -838,7 +838,7 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>6.273999999999999</v>
+        <v>5.602</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -939,7 +939,7 @@
         <v>9.84</v>
       </c>
       <c r="C36" t="n">
-        <v>-12.682</v>
+        <v>-12.732</v>
       </c>
       <c r="D36" t="n">
         <v>-9.050000000000001</v>
@@ -1054,7 +1054,7 @@
         <v>-10.47</v>
       </c>
       <c r="D44" t="n">
-        <v>-7.294</v>
+        <v>-7.242</v>
       </c>
     </row>
     <row r="45">
@@ -1065,7 +1065,7 @@
         <v>5.73</v>
       </c>
       <c r="C45" t="n">
-        <v>-13.41</v>
+        <v>-13.026</v>
       </c>
       <c r="D45" t="n">
         <v>-7.87</v>
@@ -1096,7 +1096,7 @@
         <v>-11.84</v>
       </c>
       <c r="D47" t="n">
-        <v>-7.694</v>
+        <v>-7.591000000000001</v>
       </c>
     </row>
     <row r="48">
@@ -1107,7 +1107,7 @@
         <v>5.63</v>
       </c>
       <c r="C48" t="n">
-        <v>-11.416</v>
+        <v>-11.347</v>
       </c>
       <c r="D48" t="n">
         <v>-6.88</v>
@@ -1121,7 +1121,7 @@
         <v>4.95</v>
       </c>
       <c r="C49" t="n">
-        <v>-13.114</v>
+        <v>-12.91</v>
       </c>
       <c r="D49" t="n">
         <v>-9.210000000000001</v>
@@ -1152,7 +1152,7 @@
         <v>-13.17</v>
       </c>
       <c r="D51" t="n">
-        <v>-8.186000000000002</v>
+        <v>-8.272000000000002</v>
       </c>
     </row>
     <row r="52">
@@ -1163,7 +1163,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-11.074</v>
+        <v>-11.429</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1174,10 +1174,10 @@
         <v>-21.36</v>
       </c>
       <c r="B53" t="n">
-        <v>5.417999999999999</v>
+        <v>5.479000000000001</v>
       </c>
       <c r="C53" t="n">
-        <v>-10.138</v>
+        <v>-10.494</v>
       </c>
       <c r="D53" t="n">
         <v>-7.23</v>
@@ -1191,7 +1191,7 @@
         <v>6.01</v>
       </c>
       <c r="C54" t="n">
-        <v>-13.596</v>
+        <v>-12.776</v>
       </c>
       <c r="D54" t="n">
         <v>-8.01</v>
@@ -1208,7 +1208,7 @@
         <v>-15.79</v>
       </c>
       <c r="D55" t="n">
-        <v>-8.342000000000001</v>
+        <v>-8.266999999999999</v>
       </c>
     </row>
     <row r="56">
@@ -1230,13 +1230,13 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>4.836</v>
+        <v>4.888</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.300000000000001</v>
+        <v>-8.213000000000003</v>
       </c>
     </row>
     <row r="58">
@@ -1258,7 +1258,7 @@
         <v>-21.94</v>
       </c>
       <c r="B59" t="n">
-        <v>5.592000000000001</v>
+        <v>4.968999999999999</v>
       </c>
       <c r="C59" t="n">
         <v>-14.55</v>
@@ -1334,7 +1334,7 @@
         <v>-10.62</v>
       </c>
       <c r="D64" t="n">
-        <v>-8.15</v>
+        <v>-7.787999999999999</v>
       </c>
     </row>
     <row r="65">
@@ -1398,7 +1398,7 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.228</v>
+        <v>6.274</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1415,7 +1415,7 @@
         <v>4.05</v>
       </c>
       <c r="C70" t="n">
-        <v>-10.524</v>
+        <v>-11.531</v>
       </c>
       <c r="D70" t="n">
         <v>-7.03</v>
@@ -1538,7 +1538,7 @@
         <v>-20.57</v>
       </c>
       <c r="B79" t="n">
-        <v>6.75</v>
+        <v>6.609</v>
       </c>
       <c r="C79" t="n">
         <v>-9.779999999999999</v>
@@ -1558,7 +1558,7 @@
         <v>-12.35</v>
       </c>
       <c r="D80" t="n">
-        <v>-7.478</v>
+        <v>-8.074999999999999</v>
       </c>
     </row>
     <row r="81">
@@ -1594,7 +1594,7 @@
         <v>-22.74</v>
       </c>
       <c r="B83" t="n">
-        <v>5.384</v>
+        <v>5.1</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -1639,7 +1639,7 @@
         <v>4.69</v>
       </c>
       <c r="C86" t="n">
-        <v>-13.288</v>
+        <v>-13.477</v>
       </c>
       <c r="D86" t="n">
         <v>-8.17</v>
@@ -1653,7 +1653,7 @@
         <v>5.81</v>
       </c>
       <c r="C87" t="n">
-        <v>-13.898</v>
+        <v>-13.362</v>
       </c>
       <c r="D87" t="n">
         <v>-8.869999999999999</v>
@@ -1681,7 +1681,7 @@
         <v>5.51</v>
       </c>
       <c r="C89" t="n">
-        <v>-13.83</v>
+        <v>-13.207</v>
       </c>
       <c r="D89" t="n">
         <v>-8.140000000000001</v>
@@ -1706,7 +1706,7 @@
         <v>-21.82</v>
       </c>
       <c r="B91" t="n">
-        <v>6.376</v>
+        <v>5.948</v>
       </c>
       <c r="C91" t="n">
         <v>-12.06</v>
@@ -1726,7 +1726,7 @@
         <v>-9.789999999999999</v>
       </c>
       <c r="D92" t="n">
-        <v>-6.946000000000001</v>
+        <v>-6.842000000000001</v>
       </c>
     </row>
     <row r="93">
@@ -1734,7 +1734,7 @@
         <v>-21.49</v>
       </c>
       <c r="B93" t="n">
-        <v>7.053999999999999</v>
+        <v>6.069</v>
       </c>
       <c r="C93" t="n">
         <v>-10.09</v>
@@ -1754,7 +1754,7 @@
         <v>-9.49</v>
       </c>
       <c r="D94" t="n">
-        <v>-6.967999999999999</v>
+        <v>-6.813</v>
       </c>
     </row>
     <row r="95">
@@ -1782,7 +1782,7 @@
         <v>-10.65</v>
       </c>
       <c r="D96" t="n">
-        <v>-7.77</v>
+        <v>-7.35</v>
       </c>
     </row>
     <row r="97">
@@ -1849,10 +1849,10 @@
         <v>8.42</v>
       </c>
       <c r="C101" t="n">
-        <v>-11.418</v>
+        <v>-12.143</v>
       </c>
       <c r="D101" t="n">
-        <v>-7.364</v>
+        <v>-7.687</v>
       </c>
     </row>
     <row r="102">
@@ -1874,7 +1874,7 @@
         <v>-21.66</v>
       </c>
       <c r="B103" t="n">
-        <v>5.994000000000001</v>
+        <v>5.592999999999999</v>
       </c>
       <c r="C103" t="n">
         <v>-14.32</v>
